--- a/round3.xlsx
+++ b/round3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Round Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -243,10 +243,10 @@
     <t xml:space="preserve">T1 2</t>
   </si>
   <si>
+    <t xml:space="preserve">T1 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">T1 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1 4</t>
   </si>
   <si>
     <t xml:space="preserve">good sci</t>
@@ -388,7 +388,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -703,8 +703,8 @@
   </sheetPr>
   <dimension ref="A1:AZ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>73</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>74</v>
       </c>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" s="0" t="n">
         <v>0</v>
@@ -1548,9 +1548,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="U10" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V10" s="0" t="n">
         <v>0</v>
